--- a/bug-on-fix/Bug_ StarView [2].xlsx
+++ b/bug-on-fix/Bug_ StarView [2].xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\git\15-7\resort\bug-on-fix\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
@@ -14,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bug!$A$10:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -294,6 +299,11 @@
   </si>
   <si>
     <t>Hiển thi ra căn có cùng địa chỉ với phòng đăng</t>
+  </si>
+  <si>
+    <t>Khi edit nếu không 
+upload ảnh thì sẽ tự 
+động lấy ảnh cũ trong hệ thống</t>
   </si>
 </sst>
 </file>
@@ -533,6 +543,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -850,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1096,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1122,7 @@
     <col min="5" max="5" width="42.140625" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,7 +1131,7 @@
       </c>
       <c r="C3" s="1">
         <f>COUNTIF(F11:F55, "Open")</f>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1136,7 +1149,7 @@
       </c>
       <c r="C5" s="1">
         <f>COUNTIF(F11:F55, "Reopen" )</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1211,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>10</v>
@@ -1295,7 +1308,7 @@
         <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>10</v>
@@ -1359,7 +1372,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>10</v>
@@ -1425,7 +1438,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>10</v>
@@ -1493,7 +1506,7 @@
         <v>43</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>10</v>
@@ -1526,7 +1539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>17</v>
       </c>
@@ -1541,12 +1554,14 @@
         <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1561,7 +1576,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>10</v>
@@ -1583,7 +1598,7 @@
         <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>10</v>
@@ -1643,7 +1658,7 @@
         <v>68</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>10</v>
@@ -1817,7 +1832,7 @@
         <v>52</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
